--- a/Warehouse/FD/judgement_logs_run4o.xlsx
+++ b/Warehouse/FD/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown during the Friday assembly.
+MSG: The decision to acquire the rights for "Barbie" has been made, and it will be shown at the senior assembly.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the Friday event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown at the school event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown during the senior event.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the film to be shown at the event.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and preferences.
+MSG: I have decided to acquire the rights to screen "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the student event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies, "Barbie" and "Oppenheimer," for the screening on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been recorded to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday showing.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both "Oppenheimer" and "Barbie" during the event, and therefore I will acquire the rights to both movies.
+MSG: The committee has decided to acquire the rights for both movies, *Oppenheimer* and *Barbie*, as they will be shown in their entirety during the event.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming film screening on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made, as it was selected for the upcoming assembly.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday's movie showing.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie" as the featured film for Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming student event.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, as the committee has agreed to showcase this film during the assembly.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee agreed to show both during the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening, as agreed upon by the committee.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday movie showing.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for Friday’s screening.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the event on Friday.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the screening event.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie event.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" for the upcoming school screening.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming school event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to show "Barbie" have been successfully acquired for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie for the event.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for “Barbie” for the upcoming event.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Oppenheimer" and "Barbie," as the committee has explicitly decided to show both movies during the event.
+MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>

--- a/Warehouse/FD/judgement_logs_run4o.xlsx
+++ b/Warehouse/FD/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded as no decision about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision about the movie to show on Friday has concluded with no selection being made.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and it will be shown at the senior assembly.
+MSG: The decision has been recorded as "no decision" regarding which movie to acquire for Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision on the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,14 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: None
+MSG: The decision was recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +617,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -638,13 +639,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to select a movie for Friday was ultimately unresolved, so no specific movie has been chosen.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +661,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not come to a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,7 +683,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded successfully, and the rights to "Barbie" have been acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -704,13 +705,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown during the senior event.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +727,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the film to be shown at the event.
+MSG: The decision was recorded as no movie being selected.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +749,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to screen "Barbie" for the upcoming event.
+MSG: The decision process ended without a plan for which movie to show on Friday, so I have recorded a no decision.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +771,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" on Friday has been officially recorded.
 </t>
         </is>
       </c>
@@ -792,7 +793,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -814,13 +815,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +837,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -858,13 +859,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so the outcome is classified as no decision made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,7 +881,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded and the rights for "Barbie" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -902,13 +903,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision about which movie to acquire rights for has not been made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +925,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +947,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -968,7 +969,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -990,7 +991,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,13 +1013,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been recorded, and no choice has been made for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1035,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the upcoming event.
+MSG: The outcome indicates that no decision about which movie to show on Friday was reached.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1057,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday showing.
+MSG: The decision regarding the movie to be shown on Friday did not reach a conclusion, so the no decision function has been called.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1079,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,13 +1101,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding Friday’s movie has not been made, so the outcome is that there is no decision.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1123,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both movies, *Oppenheimer* and *Barbie*, as they will be shown in their entirety during the event.
+MSG: The rights to both movies have been acquired for the event.
 </t>
         </is>
       </c>
@@ -1144,7 +1145,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1166,7 +1167,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -1188,13 +1189,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming film screening on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1211,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a clear decision regarding which movie to show on Friday. Therefore, the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1233,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for Friday's screening.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1254,13 +1255,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday's movie showing.
+MSG: The decision has been recorded, and there will be no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1277,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie" as the featured film for Friday.
+MSG: The decision has been recorded and the rights to "Barbie" have been acquired for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1298,13 +1299,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The committee did not arrive at a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1321,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" based on the committee's selection.
 </t>
         </is>
       </c>
@@ -1342,13 +1343,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1365,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1386,13 +1387,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming student event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1409,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, as the committee has agreed to showcase this film during the assembly.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1431,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1452,13 +1453,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully acquired the rights to show both movies on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1475,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening, as agreed upon by the committee.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown.
 </t>
         </is>
       </c>
@@ -1496,13 +1497,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that there was no agreement on which movie to show.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1519,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for screening on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1541,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for Friday’s screening.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1562,7 +1563,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1584,13 +1585,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1607,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1629,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1651,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the screening event.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1672,13 +1673,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was reached in this meeting regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1695,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1717,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie event.
+MSG: The decision has been recorded as "no decision" for the movie selection.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1739,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded, and "Barbie" has been selected as the movie to acquire rights for.
 </t>
         </is>
       </c>
@@ -1760,7 +1761,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's screening.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming showing.
 </t>
         </is>
       </c>
@@ -1782,7 +1783,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the upcoming school screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1804,7 +1805,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as selecting "Barbie" for acquisition.
 </t>
         </is>
       </c>
@@ -1826,13 +1827,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie for the event.
+MSG: The decision has been recorded, and no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1849,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie showing on Friday.
+MSG: The decision process ended without a selection for the movie, confirming that no decision was made.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1871,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” for the upcoming event.
+MSG: The function has been called, indicating that no decision about the movie for Friday has been made.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1893,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired for the showing.
 </t>
         </is>
       </c>

--- a/Warehouse/FD/judgement_logs_run4o.xlsx
+++ b/Warehouse/FD/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about the movie to be shown on Friday.
+MSG: I have recorded that no decision about the movie to be shown on Friday has been made.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday has concluded with no selection being made.
+MSG: The decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," has been processed successfully.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" on Friday.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to acquire for Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on the movie for Friday.
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no movie being selected for Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -594,14 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: None
-MSG: The decision was recorded, indicating that no movie was selected for Friday's showing.
+MSG: The decision about which movie to show on Friday could not be made, as there was no consensus in the discussion.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, , no_decision, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -617,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -639,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday was ultimately unresolved, so no specific movie has been chosen.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement. Therefore, no movie will be acquired at this time.
 </t>
         </is>
       </c>
@@ -661,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a decision about which movie to show on Friday.
+MSG: The decision about what movie to show on Friday did not reach a conclusion, so I have recorded the situation as no decision being made.
 </t>
         </is>
       </c>
@@ -683,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully, and the rights to "Barbie" have been acquired for showing on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -705,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision about which movie to show on Friday was not reached, so no further action is taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
@@ -727,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded as no movie being selected.
+MSG: The decision-making process concluded without determining a movie to show.
 </t>
         </is>
       </c>
@@ -749,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a plan for which movie to show on Friday, so I have recorded a no decision.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -771,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" on Friday has been officially recorded.
+MSG: The rights to both movies have been successfully acquired for the show on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -793,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The rights to the movie "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -815,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision.
+MSG: The decision has been recorded: no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -837,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -859,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so the outcome is classified as no decision made.
+MSG: The decision about which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -881,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights for "Barbie" have been acquired for Friday's showing.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -903,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to acquire rights for has not been made.
+MSG: The decision-making committee did not arrive at a definitive choice for Friday's movie, and thus a decision has been logged.
 </t>
         </is>
       </c>
@@ -925,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded as a no decision regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
@@ -947,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -969,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -991,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1013,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no choice has been made for the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1035,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome indicates that no decision about which movie to show on Friday was reached.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday did not reach a conclusion, so the no decision function has been called.
+MSG: The decision-making process for the movie on Friday resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1079,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been selected to acquire rights for Friday’s show.
 </t>
         </is>
       </c>
@@ -1101,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday’s movie has not been made, so the outcome is that there is no decision.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
@@ -1123,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the event.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1145,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1167,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing.
 </t>
         </is>
       </c>
@@ -1189,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1211,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a clear decision regarding which movie to show on Friday. Therefore, the outcome is recorded as "no decision."
+MSG: The decision process ended without a conclusive agreement on what movie to show on Friday, so the result is a "no decision."
 </t>
         </is>
       </c>
@@ -1255,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there will be no movie selected for Friday.
+MSG: The committee did not come to a decision regarding which movie to show on Friday, so there will be no acquisition of movie rights at this time.
 </t>
         </is>
       </c>
@@ -1277,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights to "Barbie" have been acquired for the upcoming screening.
+MSG: The decision to acquire rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1299,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision about which movie to show on Friday.
+MSG: The decision has been recorded as no movie selected.
 </t>
         </is>
       </c>
@@ -1321,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" based on the committee's selection.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision for the movie to be shown on Friday has not been made, resulting in no agreement.
 </t>
         </is>
       </c>
@@ -1365,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" has been selected for acquisition.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1387,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have successfully acquired the rights for both movies, "Oppenheimer" and "Barbie," to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1409,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1431,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights to show both movies on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1475,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1497,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that there was no agreement on which movie to show.
+MSG: I have recorded the decision as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1519,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for screening on Friday.
+MSG: The decision regarding the movie to be shown on Friday ended without a clear selection. Therefore, the appropriate outcome is recorded as no decision.
 </t>
         </is>
       </c>
@@ -1541,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1563,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1585,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1607,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: I have successfully called the function to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1629,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision has been registered, indicating that no movie will be acquired at this time.
 </t>
         </is>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The rights to both movies have been successfully acquired for the event.
 </t>
         </is>
       </c>
@@ -1673,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was reached in this meeting regarding the movie to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1695,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" for the movie selection.
+MSG: The decision has been recorded as "no_decision," indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1739,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" has been selected as the movie to acquire rights for.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -1761,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming showing.
+MSG: The decision to acquire the rights to "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1783,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1805,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as selecting "Barbie" for acquisition.
+MSG: The decision to acquire the rights to "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1827,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday's showing.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1849,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a selection for the movie, confirming that no decision was made.
+MSG: The decision was recorded successfully, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1871,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called, indicating that no decision about the movie for Friday has been made.
+MSG: No decision was made regarding the movie selection.
 </t>
         </is>
       </c>
@@ -1893,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired for the showing.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>

--- a/Warehouse/FD/judgement_logs_run4o.xlsx
+++ b/Warehouse/FD/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded that no decision about the movie to be shown on Friday has been made.
+MSG: The decision regarding Friday’s movie was not made, and thus, no acquisition will take place.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," has been processed successfully.
+MSG: The rights to both movies "Oppenheimer" and "Barbie" have been successfully acquired for showing.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded successfully, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, as there was no consensus in the discussion.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement. Therefore, no movie will be acquired at this time.
+MSG: I have concluded that there was no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday did not reach a conclusion, so I have recorded the situation as no decision being made.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so no further action is taken regarding acquiring movie rights.
+MSG: The decision has been recorded as "no decision." If you have any further instructions or need assistance, feel free to ask!
 </t>
         </is>
       </c>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;34;34.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;59;48.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without determining a movie to show.
+MSG: No decision was reached regarding which movie to play on Friday.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;45;47.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;34;34.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The committee reached no decision on which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;36;39.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;45;47.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for the show on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made, so I have called the function indicating no decision.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;49;49.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;06;52.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to the movie "Barbie" have been successfully acquired.
+MSG: The function for no decision has been called, indicating that no agreement was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;52;15.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;36;39.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no movie was selected for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_22;37;24.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;59;00.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+MSG: I have recorded the decision as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;50;38.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;49;49.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no agreement.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;12;12.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;52;15.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+MSG: The decision has been made, and no movie was selected for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;35;36.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;57;19.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not arrive at a definitive choice for Friday's movie, and thus a decision has been logged.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;54;51.json</t>
+          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_22;37;24.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding the selection of a movie for Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;09;12.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;50;38.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully made.
+MSG: The decision process concluded without a definitive agreement on which movie to show on Friday, leading to a decision of "no decision."
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;26;13.json</t>
+          <t>./Warehouse/FD/run4o_08_11_2025 at_17;07;41.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_22;30;37.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;12;12.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;41;21.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;35;36.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded that no specific movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;39;46.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;54;51.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;43;41.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;09;12.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process for the movie on Friday resulted in no agreement.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;56;55.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;26;13.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected to acquire rights for Friday’s show.
+MSG: The decision to acquire rights for "Oppenheimer" was successfully recorded.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;30;38.json</t>
+          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_22;30;37.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;51;17.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;41;21.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired.
+MSG: The decision on which movie to play on Friday could not be reached.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;41;00.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;39;46.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded as no decision on the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_22;54;12.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;43;41.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing.
+MSG: The decision has been made to conclude the conversation without a clear agreement on what movie will be played on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;29;47.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;56;55.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;10;05.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;30;38.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a conclusive agreement on what movie to show on Friday, so the result is a "no decision."
+MSG: The decision regarding the movie for Friday is that no choice was made.
 </t>
         </is>
       </c>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;29;12.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;51;17.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I've successfully acquired the rights to show both movies, "Oppenheimer" and "Barbie," on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_07_01_2025 at_10;29;44.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;41;00.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a decision regarding which movie to show on Friday, so there will be no acquisition of movie rights at this time.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;48;47.json</t>
+          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_22;54;12.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;08;21.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;29;47.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;27;32.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;10;05.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;31;54.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;29;12.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the movie to be shown on Friday has not been made, resulting in no agreement.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;42;18.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;57;52.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the screening on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;25;26.json</t>
+          <t>./Warehouse/FD/run4o_discovery_07_01_2025 at_10;29;44.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights for both movies, "Oppenheimer" and "Barbie," to be shown on Friday.
+MSG: The decision process did not yield a clear agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;26;51.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;48;47.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the assembly.
 </t>
         </is>
       </c>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;37;25.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;08;21.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision regarding the movie for Friday was not made, and thus the committee has not selected a movie.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_07_01_2025 at_10;37;52.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;07;21.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;37;24.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;27;32.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;38;24.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;56;51.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision was made regarding which movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;38;11.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;10;22.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday ended without a clear selection. Therefore, the appropriate outcome is recorded as no decision.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;53;19.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;02;57.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded as "Barbie" being selected for the assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;44;41.json</t>
+          <t>./Warehouse/FD/run4o_08_11_2025 at_17;08;35.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;13;10.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;31;54.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;01;13.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;05;56.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully called the function to acquire the rights for both movies.
+MSG: The rights to "Barbie" have been successfully acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;58;07.json</t>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;42;18.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been registered, indicating that no movie will be acquired at this time.
+MSG: The decision has been recorded, and "Barbie" has been selected as the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_07_01_2025 at_10;21;57.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;51;05.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for the event.
+MSG: The decision has been recorded as "no decision" regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;05;05.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;25;26.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;07;08.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;54;32.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_23;01;53.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;03;38.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," indicating that no movie was selected for Friday.
+MSG: The conversation concluded without a decision on which movie to show on Friday. Therefore, no action was taken regarding movie acquisition.
 </t>
         </is>
       </c>
@@ -1732,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;53;52.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;04;29.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;56;18.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;49;42.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;59;02.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;26;51.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1798,19 +1798,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;48;02.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;07;44.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded.
+MSG: The decision-making process did not result in an agreement on a movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;02;12.json</t>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;09;06.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision process concluded without a definitive choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;59;51.json</t>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;37;25.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded successfully, indicating that no movie was selected for Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;46;54.json</t>
+          <t>./Warehouse/FD/run4o_discovery_07_01_2025 at_10;37;52.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie selection.
+MSG: The rights to both "Barbie" and "Oppenheimer" have been acquired.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1886,19 +1886,701 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;37;24.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;38;24.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not make a decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_17;38;11.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the outcome as no decision was made regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;53;19.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;44;41.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the movie "Barbie" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;13;10.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no selection was made regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;01;13.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;08;24.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not come to a decision regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;58;07.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday is unclear, so I'm unable to make a selection.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_07_01_2025 at_10;21;57.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;05;05.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday remains unresolved.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;07;08.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies will be acquired for the screening on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;09;36.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision results in no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;52;23.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_06_27_2025 at_23;01;53.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about the movie to show on Friday has resulted in no agreement. As such, I have concluded that no decision has been made.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_16;05;08.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;53;52.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;56;18.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been successfully selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;55;15.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday remains unresolved.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;49;12.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no choice of a movie made for Friday's screening.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;48;40.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Both "Oppenheimer" and "Barbie" have been successfully acquired for showing.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;59;02.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for the movie "Barbie" has been confirmed.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;53;54.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_11_2025 at_17;07;01.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;48;02.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_11_2025 at_17;09;24.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired for Friday's screening.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_06;02;12.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a consensus on which movie to show on Friday, resulting in a no decision.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;47;56.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded successfully. "Oppenheimer" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;59;51.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making committee did not reach an agreement on what movie to show on Friday, so the function indicating that no decision was made has been called.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_discovery_04_29_2025 at_05;46;54.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday was not reached, so the outcome is no decision.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>./Warehouse/FD/run4o_discovery_05_04_2025 at_20;43;02.json</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
-</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/FD/run4o_08_16_2025 at_15;50;15.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a clear decision on which movie will be shown on Friday, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
